--- a/20240122/1월19일시리즈.xlsx
+++ b/20240122/1월19일시리즈.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Python_dyL\Python\20240122\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="20240124" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>행</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,12 +755,100 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외대부고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학급수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> print(df.iloc[2, 0])</t>
+  </si>
+  <si>
+    <t>print(df.iloc[3, :2])</t>
+  </si>
+  <si>
+    <t>Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번행, 0번 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>han</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 행, 첫 번째 컬럼부터 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 데이터프레임을 보고 어떤 객체 타입으로 반환할지 노트 또는 메모장에 작성해 보고 확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(df.iloc[:, [0, 4]])</t>
+  </si>
+  <si>
+    <t>DataFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 행, 0번과 4번 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">import pandas as pd
+data = {"ID": ["kim", "park", "han", "choi", "seo"],
+ "상품": ["상품A", "상품B", "상품C", "상D", "상품E"],
+ "가격": [15000, 23000, 33000, 50000, 60000],
+ "개수": [3, 5, 1, 10],
+ "구매일":["0303", "0810", "0120", "0601", "0124"]
+ }
+df = pd.DataFrame(data, index=["01", "02, "03", "04", "05"])
+ print(df.iloc[2, 0])
+ print(df.iloc[3, :2])
+ print(df.iloc[:, [0, 4]])
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="36"/>
       <color theme="1"/>
@@ -794,8 +883,29 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +933,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,74 +1166,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,9 +1539,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>620</v>
+      </c>
+      <c r="E9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>580</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="49"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="49"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="49"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="49"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:H30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1411,54 +2062,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="G1" s="42" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1470,12 +2121,12 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="G7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1487,10 +2138,10 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="G8" s="2">
         <v>0</v>
       </c>
@@ -1502,10 +2153,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="G9" s="2">
         <v>1</v>
       </c>
@@ -1517,10 +2168,10 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2">
         <v>2</v>
@@ -1533,10 +2184,10 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11"/>
       <c r="G11" s="2">
         <v>3</v>
@@ -1549,10 +2200,10 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
@@ -1574,12 +2225,12 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
         <v>0</v>
@@ -1609,12 +2260,12 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="G16" s="12">
         <v>2</v>
       </c>
@@ -1629,10 +2280,10 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="1"/>
       <c r="G17" s="12">
         <v>3</v>
@@ -1649,70 +2300,70 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="1"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="2:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="2:15" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
@@ -1721,213 +2372,213 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="G30" s="24" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="G30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="L30" s="24" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="L30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="29"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="29"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="29"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="36" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="G36" s="40" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="G36" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-      <c r="L36" s="40" t="s">
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="L36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="26"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="29"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="32"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="41" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="42" spans="2:18" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="19"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
       <c r="F44" s="20"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="29"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
       <c r="N45" s="20"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -1935,16 +2586,16 @@
       <c r="R45" s="10"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="29"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -1952,16 +2603,16 @@
       <c r="R46" s="10"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="29"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -1969,16 +2620,16 @@
       <c r="R47" s="10"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="29"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
@@ -1986,16 +2637,16 @@
       <c r="R48" s="10"/>
     </row>
     <row r="49" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
@@ -2003,11 +2654,11 @@
       <c r="R49" s="10"/>
     </row>
     <row r="50" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="F50" s="20"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -2020,30 +2671,30 @@
       <c r="R50" s="10"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="26"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="29"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
       <c r="N52" s="20"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -2051,11 +2702,11 @@
       <c r="R52" s="10"/>
     </row>
     <row r="53" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="32"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="29"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -2070,324 +2721,324 @@
       <c r="R54" s="10"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="H55" s="24" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="H55" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="26"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="29"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="29"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="26"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="29"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="26"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="29"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="26"/>
     </row>
     <row r="60" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="32"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" spans="2:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="62" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="H62" s="40" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="H62" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="26"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="29"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="29"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="26"/>
     </row>
     <row r="65" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
     </row>
     <row r="66" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26"/>
-      <c r="H68" s="24" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="H68" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="29"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="29"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="29"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="26"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="29"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
     </row>
     <row r="73" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="26"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="H76" s="27"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="26"/>
     </row>
     <row r="77" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H77" s="30"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="32"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" spans="2:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="79" spans="2:12" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="23"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="32"/>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
     </row>
     <row r="84" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
     </row>
     <row r="87" spans="3:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="88" spans="3:12" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="23"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="32"/>
     </row>
     <row r="89" spans="3:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="90" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="26"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="23"/>
       <c r="I90" s="7" t="s">
         <v>0</v>
       </c>
@@ -2399,11 +3050,11 @@
       </c>
     </row>
     <row r="91" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="29"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
       <c r="I91" s="2">
         <v>0</v>
       </c>
@@ -2415,11 +3066,11 @@
       </c>
     </row>
     <row r="92" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C92" s="27"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="29"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
       <c r="I92" s="2">
         <v>1</v>
       </c>
@@ -2431,11 +3082,11 @@
       </c>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
       <c r="I93" s="2">
         <v>2</v>
       </c>
@@ -2447,11 +3098,11 @@
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C94" s="27"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="29"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
       <c r="I94" s="2">
         <v>3</v>
       </c>
@@ -2463,21 +3114,21 @@
       </c>
     </row>
     <row r="95" spans="3:12" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C95" s="30"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="32"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="97" spans="3:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="98" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="26"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="23"/>
       <c r="I98" s="7" t="s">
         <v>0</v>
       </c>
@@ -2489,11 +3140,11 @@
       </c>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C99" s="27"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="29"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
       <c r="I99" s="2">
         <v>2</v>
       </c>
@@ -2505,11 +3156,11 @@
       </c>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C100" s="27"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="29"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
       <c r="I100" s="2">
         <v>3</v>
       </c>
@@ -2521,35 +3172,35 @@
       </c>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C102" s="27"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="29"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="3:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C103" s="30"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="32"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="29"/>
     </row>
     <row r="106" spans="3:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="107" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="26"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="23"/>
       <c r="I107" s="13" t="s">
         <v>33</v>
       </c>
@@ -2558,11 +3209,11 @@
       </c>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C108" s="27"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
       <c r="I108" s="15" t="s">
         <v>34</v>
       </c>
@@ -2571,11 +3222,11 @@
       </c>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C109" s="27"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="29"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
       <c r="I109" s="15" t="s">
         <v>35</v>
       </c>
@@ -2584,11 +3235,11 @@
       </c>
     </row>
     <row r="110" spans="3:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C110" s="27"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="29"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="26"/>
       <c r="I110" s="17" t="s">
         <v>36</v>
       </c>
@@ -2597,36 +3248,32 @@
       </c>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C111" s="27"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="29"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="3:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C112" s="30"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="32"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B1:E5"/>
-    <mergeCell ref="B7:E12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E21"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="G21:J22"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="G1:I4"/>
-    <mergeCell ref="B25:E28"/>
-    <mergeCell ref="B30:E34"/>
-    <mergeCell ref="G30:J34"/>
-    <mergeCell ref="L30:O34"/>
-    <mergeCell ref="B36:E38"/>
-    <mergeCell ref="G36:J38"/>
-    <mergeCell ref="L36:O38"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C90:G95"/>
+    <mergeCell ref="C98:G103"/>
+    <mergeCell ref="C107:G112"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:F84"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="B42:K42"/>
     <mergeCell ref="B68:F73"/>
@@ -2640,17 +3287,21 @@
     <mergeCell ref="H55:L60"/>
     <mergeCell ref="H62:L65"/>
     <mergeCell ref="B44:D49"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C90:G95"/>
-    <mergeCell ref="C98:G103"/>
-    <mergeCell ref="C107:G112"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="B25:E28"/>
+    <mergeCell ref="B30:E34"/>
+    <mergeCell ref="G30:J34"/>
+    <mergeCell ref="L30:O34"/>
+    <mergeCell ref="B36:E38"/>
+    <mergeCell ref="G36:J38"/>
+    <mergeCell ref="L36:O38"/>
+    <mergeCell ref="B1:E5"/>
+    <mergeCell ref="B7:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E21"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="G21:J22"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="G1:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,11 +3309,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G66" sqref="G66:I69"/>
     </sheetView>
   </sheetViews>
@@ -2670,23 +3321,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="H4" s="2" t="s">
         <v>39</v>
       </c>
@@ -2698,11 +3349,11 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2714,11 +3365,11 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="H6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2730,11 +3381,11 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2747,415 +3398,426 @@
     </row>
     <row r="8" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="16" spans="2:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="23" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="30" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="31" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="38" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="39" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:6" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="46" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="57" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="59" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="2:6" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="64" spans="2:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="65" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="32"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
     </row>
     <row r="69" spans="2:9" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
     </row>
     <row r="70" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="2:9" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G66:I69"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B48:F51"/>
+    <mergeCell ref="B53:F55"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B59:F62"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B66:F69"/>
     <mergeCell ref="B71:F75"/>
     <mergeCell ref="B33:F36"/>
     <mergeCell ref="B2:F2"/>
@@ -3167,17 +3829,6 @@
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B25:F28"/>
     <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G66:I69"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B48:F51"/>
-    <mergeCell ref="B53:F55"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B59:F62"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:F69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
